--- a/data/chemdraws/all_the_molecules.xlsx
+++ b/data/chemdraws/all_the_molecules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacaro/Documents/GitHub/cd_2f_calibration/data/chemdraws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BCB442-BA73-FA4B-9FF8-0E0BCBD25CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B48F00-891B-864A-BD59-B432C0227E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6AC582BD-263E-2E40-B635-98C7B682B991}"/>
   </bookViews>
